--- a/Labs/Lab1/code/output/performance_table.xlsx
+++ b/Labs/Lab1/code/output/performance_table.xlsx
@@ -446,7 +446,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,53 +456,91 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr"/>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr"/>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>BFGS</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="n"/>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>IDS</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="n"/>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>h1</t>
         </is>
       </c>
-      <c r="C1" s="1" t="n"/>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="n"/>
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>h2</t>
         </is>
       </c>
-      <c r="E1" s="1" t="n"/>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="n"/>
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>h3</t>
         </is>
       </c>
-      <c r="G1" s="1" t="n"/>
+      <c r="L1" s="1" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr"/>
       <c r="B2" s="1" t="inlineStr">
         <is>
+          <t>Depth</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
           <t>Avg run time</t>
         </is>
       </c>
-      <c r="C2" s="1" t="inlineStr">
+      <c r="D2" s="1" t="inlineStr">
         <is>
           <t>Avg #nodes Explr</t>
         </is>
       </c>
-      <c r="D2" s="1" t="inlineStr">
+      <c r="E2" s="1" t="inlineStr">
         <is>
           <t>Avg run time</t>
         </is>
       </c>
-      <c r="E2" s="1" t="inlineStr">
+      <c r="F2" s="1" t="inlineStr">
         <is>
           <t>Avg #nodes Explr</t>
         </is>
       </c>
-      <c r="F2" s="1" t="inlineStr">
+      <c r="G2" s="1" t="inlineStr">
         <is>
           <t>Avg run time</t>
         </is>
       </c>
-      <c r="G2" s="1" t="inlineStr">
+      <c r="H2" s="1" t="inlineStr">
+        <is>
+          <t>Avg #nodes Explr</t>
+        </is>
+      </c>
+      <c r="I2" s="1" t="inlineStr">
+        <is>
+          <t>Avg run time</t>
+        </is>
+      </c>
+      <c r="J2" s="1" t="inlineStr">
+        <is>
+          <t>Avg #nodes Explr</t>
+        </is>
+      </c>
+      <c r="K2" s="1" t="inlineStr">
+        <is>
+          <t>Avg run time</t>
+        </is>
+      </c>
+      <c r="L2" s="1" t="inlineStr">
         <is>
           <t>Avg #nodes Explr</t>
         </is>
@@ -510,78 +548,125 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B4" t="n">
         <v>8</v>
       </c>
-      <c r="B4" t="n">
-        <v>0.0002562342999965495</v>
-      </c>
       <c r="C4" t="n">
+        <v>0.005208806550000012</v>
+      </c>
+      <c r="D4" t="n">
+        <v>134.6</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.003763461950074998</v>
+      </c>
+      <c r="F4" t="n">
+        <v>288.45</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.0006542811501276446</v>
+      </c>
+      <c r="H4" t="n">
         <v>26.3</v>
       </c>
-      <c r="D4" t="n">
-        <v>0.0003626981500076454</v>
-      </c>
-      <c r="E4" t="n">
+      <c r="I4" t="n">
+        <v>0.0005012657001316256</v>
+      </c>
+      <c r="J4" t="n">
         <v>23.5</v>
       </c>
-      <c r="F4" t="n">
-        <v>0.0004586229000040021</v>
-      </c>
-      <c r="G4" t="n">
+      <c r="K4" t="n">
+        <v>0.0006419684000320558</v>
+      </c>
+      <c r="L4" t="n">
         <v>23.5</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" t="n">
         <v>15</v>
       </c>
-      <c r="B5" t="n">
-        <v>0.02010773865000033</v>
-      </c>
       <c r="C5" t="n">
+        <v>2.456299875449999</v>
+      </c>
+      <c r="D5" t="n">
+        <v>4265.1</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.1500494177499604</v>
+      </c>
+      <c r="F5" t="n">
+        <v>8832.35</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.04646219490014118</v>
+      </c>
+      <c r="H5" t="n">
         <v>458.1</v>
       </c>
-      <c r="D5" t="n">
-        <v>0.006293425699999489</v>
-      </c>
-      <c r="E5" t="n">
+      <c r="I5" t="n">
+        <v>0.009860792949712049</v>
+      </c>
+      <c r="J5" t="n">
         <v>193.5</v>
       </c>
-      <c r="F5" t="n">
-        <v>0.007422440249990813</v>
-      </c>
-      <c r="G5" t="n">
+      <c r="K5" t="n">
+        <v>0.009932489000220812</v>
+      </c>
+      <c r="L5" t="n">
         <v>193.35</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B6" t="n">
         <v>24</v>
       </c>
-      <c r="B6" t="n">
-        <v>34.07285951845</v>
-      </c>
       <c r="C6" t="n">
+        <v>565.81081045615</v>
+      </c>
+      <c r="D6" t="n">
+        <v>107117.7</v>
+      </c>
+      <c r="E6" t="n">
+        <v>6.193369185400025</v>
+      </c>
+      <c r="F6" t="n">
+        <v>295687.1</v>
+      </c>
+      <c r="G6" t="n">
+        <v>62.00525144584981</v>
+      </c>
+      <c r="H6" t="n">
         <v>19485.35</v>
       </c>
-      <c r="D6" t="n">
-        <v>0.514328460999991</v>
-      </c>
-      <c r="E6" t="n">
+      <c r="I6" t="n">
+        <v>0.5121588289500323</v>
+      </c>
+      <c r="J6" t="n">
         <v>2268.75</v>
       </c>
-      <c r="F6" t="n">
-        <v>0.5218732166000108</v>
-      </c>
-      <c r="G6" t="n">
+      <c r="K6" t="n">
+        <v>0.5360880474497207</v>
+      </c>
+      <c r="L6" t="n">
         <v>2268.75</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
+  <mergeCells count="5">
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
